--- a/Projekt Beskrivningar/Reports/Time report.xlsx
+++ b/Projekt Beskrivningar/Reports/Time report.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\DagbokProjekt\Projekt Beskrivningar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\DagbokProjekt\Projekt Beskrivningar\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B335829D-D1BA-4D1B-9CF1-2A8AA9FD2C69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69075032-2483-4CD4-876A-5E66937EF4A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F7BFEC0F-D3D6-47A9-94FC-57DB3F8A7DB4}"/>
   </bookViews>
@@ -94,10 +94,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83B938FA-C183-4B88-AE19-B1C1AB776B71}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -424,17 +424,17 @@
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="3"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -445,71 +445,53 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
         <v>44942</v>
       </c>
-      <c r="D5">
+      <c r="C5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>44944</v>
+      </c>
+      <c r="C6">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D6">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D7">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D8">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D9">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
-      <c r="D10">
+      <c r="C10">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D11">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11">
         <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D12">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D13">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D14">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D15">
-        <f>SUM(D5:D14)</f>
-        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/Projekt Beskrivningar/Reports/Time report.xlsx
+++ b/Projekt Beskrivningar/Reports/Time report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\DagbokProjekt\Projekt Beskrivningar\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69075032-2483-4CD4-876A-5E66937EF4A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F635728C-3F03-42BA-92CA-269EDD913CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F7BFEC0F-D3D6-47A9-94FC-57DB3F8A7DB4}"/>
   </bookViews>
@@ -412,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83B938FA-C183-4B88-AE19-B1C1AB776B71}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,9 +462,6 @@
       <c r="B6" s="2">
         <v>44944</v>
       </c>
-      <c r="C6">
-        <v>15</v>
-      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C7">
@@ -491,6 +488,16 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13">
         <v>15</v>
       </c>
     </row>

--- a/Projekt Beskrivningar/Reports/Time report.xlsx
+++ b/Projekt Beskrivningar/Reports/Time report.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\DagbokProjekt\Projekt Beskrivningar\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F635728C-3F03-42BA-92CA-269EDD913CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74EA6FE-2CF4-4457-8C48-0F57909E8184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F7BFEC0F-D3D6-47A9-94FC-57DB3F8A7DB4}"/>
   </bookViews>
@@ -404,7 +404,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -412,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83B938FA-C183-4B88-AE19-B1C1AB776B71}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,10 +462,13 @@
       <c r="B6" s="2">
         <v>44944</v>
       </c>
+      <c r="C6">
+        <v>105</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C7">
-        <v>15</v>
+      <c r="B7" s="2">
+        <v>44949</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -498,6 +501,16 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C15">
         <v>15</v>
       </c>
     </row>

--- a/Projekt Beskrivningar/Reports/Time report.xlsx
+++ b/Projekt Beskrivningar/Reports/Time report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\DagbokProjekt\Projekt Beskrivningar\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74EA6FE-2CF4-4457-8C48-0F57909E8184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE9D49D-8627-424C-B4A7-6FEC35A93175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F7BFEC0F-D3D6-47A9-94FC-57DB3F8A7DB4}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{F7BFEC0F-D3D6-47A9-94FC-57DB3F8A7DB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
     <t>Datum</t>
   </si>
   <si>
-    <t>Databas</t>
+    <t>Interface</t>
   </si>
 </sst>
 </file>
@@ -415,7 +415,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,26 +470,28 @@
       <c r="B7" s="2">
         <v>44949</v>
       </c>
+      <c r="C7">
+        <v>15</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C8">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C9">
-        <v>15</v>
-      </c>
+      <c r="B8" s="2"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
+      <c r="B10" s="2">
+        <v>44949</v>
+      </c>
       <c r="C10">
-        <v>15</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
+        <v>44951</v>
+      </c>
       <c r="C11">
         <v>15</v>
       </c>

--- a/Projekt Beskrivningar/Reports/Time report.xlsx
+++ b/Projekt Beskrivningar/Reports/Time report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\DagbokProjekt\Projekt Beskrivningar\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE9D49D-8627-424C-B4A7-6FEC35A93175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD70D70-8FCF-4145-A04A-C2690B92640E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{F7BFEC0F-D3D6-47A9-94FC-57DB3F8A7DB4}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11385" xr2:uid="{F7BFEC0F-D3D6-47A9-94FC-57DB3F8A7DB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>TIDSREDOVISNING</t>
   </si>
@@ -54,6 +54,12 @@
   </si>
   <si>
     <t>Interface</t>
+  </si>
+  <si>
+    <t>Databas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -412,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83B938FA-C183-4B88-AE19-B1C1AB776B71}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -424,17 +430,17 @@
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -445,12 +451,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>44942</v>
       </c>
@@ -458,7 +464,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>44944</v>
       </c>
@@ -466,7 +472,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>44949</v>
       </c>
@@ -474,10 +480,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -488,31 +494,45 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>44951</v>
       </c>
       <c r="C11">
+        <v>75</v>
+      </c>
+      <c r="F11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="2">
+        <v>44951</v>
+      </c>
+      <c r="C15">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C12">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C16">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C13">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C14">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C15">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19">
         <v>15</v>
       </c>
     </row>

--- a/Projekt Beskrivningar/Reports/Time report.xlsx
+++ b/Projekt Beskrivningar/Reports/Time report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\DagbokProjekt\Projekt Beskrivningar\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD70D70-8FCF-4145-A04A-C2690B92640E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4469E8F-EAC1-4C84-B9BC-AAA17D83E888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11385" xr2:uid="{F7BFEC0F-D3D6-47A9-94FC-57DB3F8A7DB4}"/>
+    <workbookView xWindow="4200" yWindow="2595" windowWidth="21600" windowHeight="11385" xr2:uid="{F7BFEC0F-D3D6-47A9-94FC-57DB3F8A7DB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -418,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83B938FA-C183-4B88-AE19-B1C1AB776B71}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,10 +513,13 @@
         <v>44951</v>
       </c>
       <c r="C15">
-        <v>15</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
+        <v>44952</v>
+      </c>
       <c r="C16">
         <v>15</v>
       </c>
@@ -533,6 +536,26 @@
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C23">
         <v>15</v>
       </c>
     </row>

--- a/Projekt Beskrivningar/Reports/Time report.xlsx
+++ b/Projekt Beskrivningar/Reports/Time report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\DagbokProjekt\Projekt Beskrivningar\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4469E8F-EAC1-4C84-B9BC-AAA17D83E888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F426A529-7E7B-44A0-9C16-E5FD57103391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="2595" windowWidth="21600" windowHeight="11385" xr2:uid="{F7BFEC0F-D3D6-47A9-94FC-57DB3F8A7DB4}"/>
+    <workbookView xWindow="-25320" yWindow="270" windowWidth="25440" windowHeight="15390" xr2:uid="{F7BFEC0F-D3D6-47A9-94FC-57DB3F8A7DB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>TIDSREDOVISNING</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>(Häma,Skicka,Koppla)</t>
   </si>
 </sst>
 </file>
@@ -421,7 +424,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,10 +508,16 @@
         <v>7</v>
       </c>
     </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="3"/>
+    </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>6</v>
-      </c>
       <c r="B15" s="2">
         <v>44951</v>
       </c>
@@ -521,47 +530,51 @@
         <v>44952</v>
       </c>
       <c r="C16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
+        <v>44956</v>
+      </c>
       <c r="C17">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C18">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C19">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C20">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C21">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C22">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C23">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="B14:C14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Projekt Beskrivningar/Reports/Time report.xlsx
+++ b/Projekt Beskrivningar/Reports/Time report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\DagbokProjekt\Projekt Beskrivningar\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F426A529-7E7B-44A0-9C16-E5FD57103391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07EA247C-66CC-442D-B75E-8B81A2928D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="270" windowWidth="25440" windowHeight="15390" xr2:uid="{F7BFEC0F-D3D6-47A9-94FC-57DB3F8A7DB4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F7BFEC0F-D3D6-47A9-94FC-57DB3F8A7DB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>TIDSREDOVISNING</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Projekt plan</t>
   </si>
   <si>
-    <t>Tid</t>
-  </si>
-  <si>
     <t>Aktivitet</t>
   </si>
   <si>
@@ -62,7 +59,25 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>(Häma,Skicka,Koppla)</t>
+    <t>Tid(Min)</t>
+  </si>
+  <si>
+    <t>Totalt</t>
+  </si>
+  <si>
+    <t>totalt</t>
+  </si>
+  <si>
+    <t>Projektrapport</t>
+  </si>
+  <si>
+    <t>Grund funktioner</t>
+  </si>
+  <si>
+    <t>Timmar</t>
+  </si>
+  <si>
+    <t>(Häma,Skicka, koplling)</t>
   </si>
 </sst>
 </file>
@@ -86,7 +101,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -94,11 +109,66 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -107,6 +177,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,7 +493,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -421,16 +501,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83B938FA-C183-4B88-AE19-B1C1AB776B71}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -444,26 +524,27 @@
       <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
+      <c r="C3" s="9" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
+      <c r="C4" s="8"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>44942</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="8">
         <v>150</v>
       </c>
     </row>
@@ -471,7 +552,7 @@
       <c r="B6" s="2">
         <v>44944</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="8">
         <v>105</v>
       </c>
     </row>
@@ -479,103 +560,166 @@
       <c r="B7" s="2">
         <v>44949</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="8">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
+      <c r="B8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="9">
+        <f>SUM(C5:C7)</f>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C9" s="8"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="2">
         <v>44949</v>
       </c>
-      <c r="C10">
-        <v>120</v>
+      <c r="C10" s="8">
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>44951</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="8">
         <v>75</v>
       </c>
       <c r="F11" t="s">
-        <v>7</v>
-      </c>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="9">
+        <f>SUM(C10:C11)</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C13" s="8"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2">
+        <v>44951</v>
+      </c>
+      <c r="C14" s="8">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="2">
-        <v>44951</v>
-      </c>
-      <c r="C15">
-        <v>90</v>
-      </c>
+      <c r="C15" s="9">
+        <v>165</v>
+      </c>
+      <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="2">
+      <c r="C16" s="8"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="10"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="2">
         <v>44952</v>
       </c>
-      <c r="C16">
+      <c r="C18" s="8">
         <v>120</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="2">
         <v>44956</v>
       </c>
-      <c r="C17">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C18">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C19">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C20">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C21">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C22">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C23">
-        <v>15</v>
+      <c r="C19" s="8">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="2">
+        <v>44957</v>
+      </c>
+      <c r="C20" s="8">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="9">
+        <f>SUM(C18:C20)</f>
+        <v>345</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="8"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="2">
+        <v>44959</v>
+      </c>
+      <c r="C23" s="8">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="9">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C25" s="8"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C26" s="8"/>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="7">
+        <v>19.5</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="B14:C14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Projekt Beskrivningar/Reports/Time report.xlsx
+++ b/Projekt Beskrivningar/Reports/Time report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\DagbokProjekt\Projekt Beskrivningar\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07EA247C-66CC-442D-B75E-8B81A2928D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C0339C-4260-4CE6-9F3C-868A4F4CC9BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F7BFEC0F-D3D6-47A9-94FC-57DB3F8A7DB4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>TIDSREDOVISNING</t>
   </si>
@@ -59,9 +59,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Tid(Min)</t>
-  </si>
-  <si>
     <t>Totalt</t>
   </si>
   <si>
@@ -78,13 +75,22 @@
   </si>
   <si>
     <t>(Häma,Skicka, koplling)</t>
+  </si>
+  <si>
+    <t>Förväntat</t>
+  </si>
+  <si>
+    <t>Prod Test</t>
+  </si>
+  <si>
+    <t>Prod</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,16 +98,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -119,10 +149,43 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="double">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -135,7 +198,7 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="medium">
+      <bottom style="double">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -147,48 +210,77 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -501,80 +593,95 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83B938FA-C183-4B88-AE19-B1C1AB776B71}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
+      <c r="B1" s="8"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>7</v>
+      <c r="C3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="8"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="19"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>44942</v>
       </c>
-      <c r="C5" s="8">
-        <v>150</v>
-      </c>
+      <c r="C5" s="5">
+        <f>150/60</f>
+        <v>2.5</v>
+      </c>
+      <c r="D5" s="20"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>44944</v>
       </c>
-      <c r="C6" s="8">
-        <v>105</v>
-      </c>
+      <c r="C6" s="5">
+        <f>105/60</f>
+        <v>1.75</v>
+      </c>
+      <c r="D6" s="20"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>44949</v>
       </c>
-      <c r="C7" s="8">
-        <v>15</v>
-      </c>
+      <c r="C7" s="5">
+        <f>15/60</f>
+        <v>0.25</v>
+      </c>
+      <c r="D7" s="21"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="9">
+      <c r="B8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="10">
         <f>SUM(C5:C7)</f>
-        <v>270</v>
+        <v>4.5</v>
+      </c>
+      <c r="D8" s="17">
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C9" s="8"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="19"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -583,141 +690,192 @@
       <c r="B10" s="2">
         <v>44949</v>
       </c>
-      <c r="C10" s="8">
-        <v>75</v>
-      </c>
+      <c r="C10" s="5">
+        <f>75/60</f>
+        <v>1.25</v>
+      </c>
+      <c r="D10" s="20"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>44951</v>
       </c>
-      <c r="C11" s="8">
-        <v>75</v>
-      </c>
+      <c r="C11" s="5">
+        <f>75/60</f>
+        <v>1.25</v>
+      </c>
+      <c r="D11" s="21"/>
       <c r="F11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="6" t="s">
-        <v>9</v>
+      <c r="B12" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="C12" s="9">
         <f>SUM(C10:C11)</f>
-        <v>150</v>
+        <v>2.5</v>
+      </c>
+      <c r="D12" s="18">
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C13" s="8"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="12"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="2">
         <v>44951</v>
       </c>
-      <c r="C14" s="8">
-        <v>165</v>
-      </c>
+      <c r="C14" s="5">
+        <f>165/60</f>
+        <v>2.75</v>
+      </c>
+      <c r="D14" s="18"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="12"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="6" t="s">
-        <v>8</v>
+      <c r="B15" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C15" s="9">
-        <v>165</v>
-      </c>
-      <c r="E15" s="4"/>
+        <f>165/60</f>
+        <v>2.75</v>
+      </c>
+      <c r="D15" s="18"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C16" s="8"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C16" s="5"/>
+      <c r="D16" s="19"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="10"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="20"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <v>44952</v>
       </c>
-      <c r="C18" s="8">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="5">
+        <f>120/60</f>
+        <v>2</v>
+      </c>
+      <c r="D18" s="20"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <v>44956</v>
       </c>
-      <c r="C19" s="8">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="5">
+        <f>105/60</f>
+        <v>1.75</v>
+      </c>
+      <c r="D19" s="20"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
         <v>44957</v>
       </c>
-      <c r="C20" s="8">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="6" t="s">
+      <c r="C20" s="5">
+        <f>120/60</f>
+        <v>2</v>
+      </c>
+      <c r="D20" s="21"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="10">
+        <f>SUM(C18:C20)</f>
+        <v>5.75</v>
+      </c>
+      <c r="D21" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C22" s="5"/>
+      <c r="D22" s="19"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>9</v>
-      </c>
-      <c r="C21" s="9">
-        <f>SUM(C18:C20)</f>
-        <v>345</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C22" s="8"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>10</v>
       </c>
       <c r="B23" s="2">
         <v>44959</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="5">
         <v>240</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="6" t="s">
-        <v>9</v>
+      <c r="D23" s="21"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="C24" s="9">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C25" s="8"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C26" s="8"/>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" s="7">
+        <f>240/60</f>
+        <v>4</v>
+      </c>
+      <c r="D24" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="13">
+        <v>0</v>
+      </c>
+      <c r="D25" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="13">
+        <v>0</v>
+      </c>
+      <c r="D26" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="15">
+        <f>C8+C12+C15+C21+C24</f>
         <v>19.5</v>
       </c>
-      <c r="C27" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
+      <c r="D27" s="17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D12:D15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
